--- a/Final/results.xlsx
+++ b/Final/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorhuang/Desktop/DSD/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C655466-9F28-4548-B89E-6EAC15E4F68D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1177528-BDDE-A84B-9DB1-78B481A304EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="1320" windowWidth="18040" windowHeight="13800" xr2:uid="{299BFB76-7EC4-FE4D-A66F-EE798D0970FC}"/>
+    <workbookView xWindow="5880" yWindow="1780" windowWidth="23000" windowHeight="9680" xr2:uid="{299BFB76-7EC4-FE4D-A66F-EE798D0970FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
-  <si>
-    <t>L2Cache</t>
-  </si>
-  <si>
-    <t>baseline</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>T (ns)</t>
-  </si>
-  <si>
-    <t>A (cell area)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>HW4</t>
   </si>
@@ -85,6 +70,51 @@
   </si>
   <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>no cache</t>
+  </si>
+  <si>
+    <t>+I+D</t>
+  </si>
+  <si>
+    <t>+I+L2D</t>
+  </si>
+  <si>
+    <t>+I</t>
+  </si>
+  <si>
+    <t>+D</t>
+  </si>
+  <si>
+    <t>+L2I+L2D</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>L2I</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L2D</t>
+  </si>
+  <si>
+    <t>write miss rate</t>
+  </si>
+  <si>
+    <t>L1 vs. L2</t>
+  </si>
+  <si>
+    <t>L2 size</t>
   </si>
 </sst>
 </file>
@@ -129,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +178,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,272 +499,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4F9896-A7F8-294F-A3AD-69DB43562484}">
-  <dimension ref="B3:K23"/>
+  <dimension ref="A2:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="17" width="16" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
-        <f>8843/5</f>
-        <v>1768.6</v>
+      <c r="C4" s="1">
+        <v>13187</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9148</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5231</v>
       </c>
       <c r="F4" s="2">
-        <f>8003/5</f>
-        <v>1600.6</v>
-      </c>
-      <c r="G4" s="3">
-        <f>(F4-E4)/E4</f>
-        <v>-9.4990387877417176E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>287356</v>
+        <v>1830</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1830</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1601</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D5" s="1">
+      <c r="L4" s="3">
+        <f>59/1407</f>
+        <v>4.1933191186922528E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f>19/1419</f>
+        <v>1.3389711064129669E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <f>5/196</f>
+        <v>2.5510204081632654E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <f>0/194</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <f>5/196</f>
+        <v>2.5510204081632654E-2</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>0/194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
-        <f>39913/5</f>
-        <v>7982.6</v>
+      <c r="C5" s="1">
+        <v>70483</v>
+      </c>
+      <c r="D5" s="2">
+        <v>46059</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28942</v>
       </c>
       <c r="F5" s="2">
-        <f>37158/5</f>
-        <v>7431.6</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G9" si="0">(F5-E5)/E5</f>
-        <v>-6.9025129657003984E-2</v>
+        <v>8130</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7991</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6832</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <f>119/7287</f>
+        <v>1.633045148895293E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f>19/7190</f>
+        <v>2.6425591098748263E-3</v>
+      </c>
+      <c r="N5" s="3">
+        <f>33/1156</f>
+        <v>2.8546712802768166E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <f>21/1184</f>
+        <v>1.7736486486486486E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <f>10/1156</f>
+        <v>8.6505190311418692E-3</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>0/1184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>111895</v>
+      </c>
+      <c r="E6" s="8">
+        <v>71577</v>
+      </c>
+      <c r="F6" s="8">
+        <v>19725</v>
+      </c>
+      <c r="G6" s="8">
+        <v>18686</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17797</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3">
+        <f>179/18462</f>
+        <v>9.6955909435597447E-3</v>
+      </c>
+      <c r="M6" s="3">
+        <f>19/17495</f>
+        <v>1.086024578450986E-3</v>
+      </c>
+      <c r="N6" s="3">
+        <f>188/2916</f>
+        <v>6.4471879286694095E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <f>176/2984</f>
+        <v>5.8981233243967826E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f>15/2916</f>
+        <v>5.1440329218106996E-3</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>0/2984</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>133012</v>
+      </c>
+      <c r="F7" s="8">
+        <v>37068</v>
+      </c>
+      <c r="G7" s="8">
+        <v>33972</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32753</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="K7" s="1">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3">
+        <f>239/35385</f>
+        <v>6.7542744100607599E-3</v>
+      </c>
+      <c r="M7" s="3">
+        <f>19/32391</f>
+        <v>5.8658269272328736E-4</v>
+      </c>
+      <c r="N7" s="3">
+        <f>535/5476</f>
+        <v>9.7699050401753099E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <f>516/5584</f>
+        <v>9.2406876790830941E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <f>20/5476</f>
+        <v>3.6523009495982471E-3</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>0/5584</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>59495</v>
+      </c>
+      <c r="G8" s="8">
+        <v>53757</v>
+      </c>
+      <c r="H8" s="1">
+        <v>52208</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="K8" s="1">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3">
+        <f>299/57392</f>
+        <v>5.2097853359353219E-3</v>
+      </c>
+      <c r="M8" s="3">
+        <f>19/51786</f>
+        <v>3.6689452747846909E-4</v>
+      </c>
+      <c r="N8" s="3">
+        <f>981/8836</f>
+        <v>0.11102308736985061</v>
+      </c>
+      <c r="O8" s="3">
+        <f>956/8984</f>
+        <v>0.10641139804096171</v>
+      </c>
+      <c r="P8" s="3">
+        <f>25/8836</f>
+        <v>2.8293345405160705E-3</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>0/8984</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>87050</v>
+      </c>
+      <c r="G9" s="8">
+        <v>78045</v>
+      </c>
+      <c r="H9" s="1">
+        <v>76166</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="K9" s="1">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3">
+        <f>359/84527</f>
+        <v>4.2471636281898092E-3</v>
+      </c>
+      <c r="M9" s="3">
+        <f>19/75684</f>
+        <v>2.5104381375191584E-4</v>
+      </c>
+      <c r="N9" s="3">
+        <f>1529/12996</f>
+        <v>0.11765158510310865</v>
+      </c>
+      <c r="O9" s="3">
+        <f>1497/13184</f>
+        <v>0.11354672330097088</v>
+      </c>
+      <c r="P9" s="3">
+        <f>30/12996</f>
+        <v>2.3084025854108957E-3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>0/13184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f>N9</f>
+        <v>0.11765158510310865</v>
+      </c>
+      <c r="M13" s="3">
+        <f>O9</f>
+        <v>0.11354672330097088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6161</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4182</v>
+      </c>
+      <c r="F14" s="3">
+        <f>(E14-D14)/D14</f>
+        <v>-0.32121408862197698</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="K14" s="1">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3">
+        <f>1231/12996</f>
+        <v>9.472145275469375E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f>730/13184</f>
+        <v>5.5370145631067964E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="1">
+        <v>32</v>
+      </c>
+      <c r="L15" s="3">
+        <f>30/12996</f>
+        <v>2.3084025854108957E-3</v>
+      </c>
+      <c r="M15" s="3">
+        <f>0/13184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="1">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <f>96838/5</f>
-        <v>19367.599999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <f>88983/5</f>
-        <v>17796.599999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>-8.1114851607839905E-2</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>64</v>
+      </c>
+      <c r="L16" s="3">
+        <f>30/12996</f>
+        <v>2.3084025854108957E-3</v>
+      </c>
+      <c r="M16" s="3">
+        <f>0/13184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2">
-        <f>181523/5</f>
-        <v>36304.6</v>
-      </c>
-      <c r="F7" s="2">
-        <f>163763/5</f>
-        <v>32752.6</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>-9.7838841358946257E-2</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2065</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2074</v>
+      </c>
+      <c r="K17" s="1">
+        <v>128</v>
+      </c>
+      <c r="L17" s="3">
+        <f>30/12996</f>
+        <v>2.3084025854108957E-3</v>
+      </c>
+      <c r="M17" s="3">
+        <f>0/13184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="1">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <f>291153/5</f>
-        <v>58230.6</v>
-      </c>
-      <c r="F8" s="2">
-        <f>261038/5</f>
-        <v>52207.6</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.10343358989946867</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="1">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <f>425893/5</f>
-        <v>85178.6</v>
-      </c>
-      <c r="F9" s="2">
-        <f>380828/5</f>
-        <v>76165.600000000006</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.10581296241074635</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6161</v>
-      </c>
-      <c r="E13" s="1">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
         <v>4182</v>
       </c>
-      <c r="F13" s="3">
-        <f>(E13-D13)/D13</f>
-        <v>-0.32121408862197698</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
+      <c r="E20" s="1">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2065</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4182</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8811</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>738854</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>406828</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
         <v>188</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>512</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="O4:P4" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Final/results.xlsx
+++ b/Final/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorhuang/Desktop/DSD/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1177528-BDDE-A84B-9DB1-78B481A304EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66E69968-1E84-2C43-830E-D144FFCD3C34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="1780" windowWidth="23000" windowHeight="9680" xr2:uid="{299BFB76-7EC4-FE4D-A66F-EE798D0970FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>HW4</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>L2 size</t>
+  </si>
+  <si>
+    <t>BrPred</t>
+  </si>
+  <si>
+    <t>no bp</t>
+  </si>
+  <si>
+    <t>bp (2b)</t>
+  </si>
+  <si>
+    <t>bp (1b)</t>
+  </si>
+  <si>
+    <t>200 200 200</t>
   </si>
 </sst>
 </file>
@@ -499,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4F9896-A7F8-294F-A3AD-69DB43562484}">
-  <dimension ref="A2:Q24"/>
+  <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1045,7 @@
         <v>8811</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,7 +1067,7 @@
         <v>406828</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1061,6 +1076,37 @@
       </c>
       <c r="E24" s="1">
         <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3700</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3501</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3699</v>
       </c>
     </row>
   </sheetData>

--- a/Final/results.xlsx
+++ b/Final/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorhuang/Desktop/DSD/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66E69968-1E84-2C43-830E-D144FFCD3C34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D2211E2-9E0E-794E-A5E7-C7E080868A2E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1780" windowWidth="23000" windowHeight="9680" xr2:uid="{299BFB76-7EC4-FE4D-A66F-EE798D0970FC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{299BFB76-7EC4-FE4D-A66F-EE798D0970FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>HW4</t>
   </si>
@@ -120,32 +120,131 @@
     <t>BrPred</t>
   </si>
   <si>
-    <t>no bp</t>
+    <t>no L2</t>
   </si>
   <si>
-    <t>bp (2b)</t>
+    <t>Baseline</t>
   </si>
   <si>
-    <t>bp (1b)</t>
+    <t>original</t>
   </si>
   <si>
-    <t>200 200 200</t>
+    <t>using compile</t>
+  </si>
+  <si>
+    <t>total cycles</t>
+  </si>
+  <si>
+    <t>synth clock cycle</t>
+  </si>
+  <si>
+    <t>synth area</t>
+  </si>
+  <si>
+    <t>crit. break</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">note: using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to synthesize</t>
+    </r>
+  </si>
+  <si>
+    <t>no BrPred</t>
+  </si>
+  <si>
+    <t>BrPred (2b)</t>
+  </si>
+  <si>
+    <t>BrPred (1b)</t>
+  </si>
+  <si>
+    <t>note1: (a, b, c) = (200, 200, 200)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">note2: synthesized using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with clock constraint 5ns</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="\+0.0%;\-0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,11 +269,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +361,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +412,6202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>ICache</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" b="1"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" b="1"/>
+              <a:t>Miss Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14172479233631843"/>
+          <c:y val="0.16948546965677469"/>
+          <c:w val="0.65281026928027464"/>
+          <c:h val="0.65963516095871799"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>L1 only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1933191186922528E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.633045148895293E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6955909435597447E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7542744100607599E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2097853359353219E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2471636281898092E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56B1-1242-B6DF-93B5BC54913A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>L1 + L2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3389711064129669E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6425591098748263E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.086024578450986E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8658269272328736E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6689452747846909E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5104381375191584E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56B1-1242-B6DF-93B5BC54913A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1306175712"/>
+        <c:axId val="1254036672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1306175712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>nb of tbL2Cache</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254036672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1254036672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>miss rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1044965385588921E-2"/>
+              <c:y val="0.38057384484248108"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306175712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>DCache Read</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Miss Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13809198564069486"/>
+          <c:y val="0.16796875139292577"/>
+          <c:w val="0.65622219607213195"/>
+          <c:h val="0.66268107143583044"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>L1 only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5510204081632654E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8546712802768166E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4471879286694095E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7699050401753099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11102308736985061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11765158510310865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFD6-3F40-85D2-69866CB499FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>L1 + L2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5510204081632654E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6505190311418692E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1440329218106996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6523009495982471E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8293345405160705E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3084025854108957E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFD6-3F40-85D2-69866CB499FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1305975568"/>
+        <c:axId val="1307867680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1305975568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>nb of tbL2Cache</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1307867680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1307867680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>miss rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305975568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>DCache Write</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Miss Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13535197314779301"/>
+          <c:y val="0.16796875139292577"/>
+          <c:w val="0.66056052055056225"/>
+          <c:h val="0.66264899941337618"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>L1 only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7736486486486486E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8981233243967826E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2406876790830941E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10641139804096171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11354672330097088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7F9-C046-9046-18C13F3C58EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>L1 + L2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D7F9-C046-9046-18C13F3C58EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1306399680"/>
+        <c:axId val="1307726448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1306399680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>nb of tbL2Cache</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1307726448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1307726448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>miss rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306399680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Cache</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Ablation Study</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>no cache</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B574-5344-B613-E588C3095760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>+D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46059</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>111895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B574-5344-B613-E588C3095760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>+I</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B574-5344-B613-E588C3095760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>+I+D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8130</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>19725</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>37068</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>59495</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>87050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B574-5344-B613-E588C3095760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>+I+L2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7991</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>18686</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>33972</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>53757</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>78045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B574-5344-B613-E588C3095760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>+L2I+L2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B574-5344-B613-E588C3095760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1308388880"/>
+        <c:axId val="1312994800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1308388880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0"/>
+                  <a:t>nb</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+                  <a:t> of tbL2Cache</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40053220029779074"/>
+              <c:y val="0.90579488743187153"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312994800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1312994800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0"/>
+                  <a:t>total cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1308388880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L2 Cache Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>read miss rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$36:$K$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>no L2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$36:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11765158510310865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.472145275469375E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3084025854108957E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3084025854108957E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3084025854108957E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC04-8441-9410-1CBD186EAE6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>write miss rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$36:$K$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>no L2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$36:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11354672330097088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5370145631067964E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC04-8441-9410-1CBD186EAE6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1306929376"/>
+        <c:axId val="1301092096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1306929376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301092096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1301092096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>miss rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306929376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812493</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>732971</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161279</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156AB6E6-C316-9B4A-9F9B-85695E0ADDC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>804375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>745914</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F0F95D-00C3-2941-AEE6-C3A3F34C359A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>231850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53048</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABCD50F-AD67-B74E-9AFF-4776E11A358B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>680720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF05E54-5499-7849-A885-5CEEB90DCFF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475530</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>820235</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687F3BC1-BDA4-A14A-ABDD-7E01FBA57880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,22 +6907,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4F9896-A7F8-294F-A3AD-69DB43562484}">
-  <dimension ref="A2:Q29"/>
+  <dimension ref="A2:AF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="Q10" zoomScale="184" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10.83203125" style="1"/>
     <col min="12" max="17" width="16" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="0.1640625" style="1" customWidth="1"/>
+    <col min="25" max="27" width="10.83203125" style="1"/>
+    <col min="28" max="28" width="14.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15" style="1" customWidth="1"/>
+    <col min="30" max="31" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="6.6640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
@@ -544,7 +6945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="17" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -587,8 +6988,12 @@
       <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="17" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -643,8 +7048,16 @@
         <f>0/194</f>
         <v>0</v>
       </c>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,8 +7112,24 @@
         <f>0/1184</f>
         <v>0</v>
       </c>
+      <c r="AB5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>2065</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>3262</v>
+      </c>
+      <c r="AF5" s="9">
+        <f>(AE5-AD5)/AD5</f>
+        <v>0.57966101694915251</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="B6" s="1">
         <v>15</v>
       </c>
@@ -748,8 +7177,24 @@
         <f>0/2984</f>
         <v>0</v>
       </c>
+      <c r="AB6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AF6" s="9">
+        <f>(AE6-AD6)/AD6</f>
+        <v>-0.30555555555555558</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="17" thickBot="1">
       <c r="B7" s="1">
         <v>20</v>
       </c>
@@ -795,8 +7240,21 @@
         <f>0/5584</f>
         <v>0</v>
       </c>
+      <c r="AC7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>306717</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>334398</v>
+      </c>
+      <c r="AF7" s="11">
+        <f>(AE7-AD7)/AD7</f>
+        <v>9.0249317775017365E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32">
       <c r="B8" s="1">
         <v>25</v>
       </c>
@@ -840,8 +7298,14 @@
         <f>0/8984</f>
         <v>0</v>
       </c>
+      <c r="AC8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32">
       <c r="B9" s="1">
         <v>30</v>
       </c>
@@ -886,234 +7350,284 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L11" s="1" t="s">
+    <row r="14" spans="1:32">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6161</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4182</v>
+      </c>
+      <c r="F30" s="3">
+        <f>(E30-D30)/D30</f>
+        <v>-0.32121408862197698</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2065</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="L34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J12" s="1" t="s">
+    <row r="35" spans="2:14">
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N35" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
+    <row r="36" spans="2:14">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4182</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8811</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="K36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="3">
         <f>N9</f>
         <v>0.11765158510310865</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M36" s="3">
         <f>O9</f>
         <v>0.11354672330097088</v>
       </c>
+      <c r="N36" s="1">
+        <v>282703</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6161</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4182</v>
-      </c>
-      <c r="F14" s="3">
-        <f>(E14-D14)/D14</f>
-        <v>-0.32121408862197698</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="K14" s="1">
+    <row r="37" spans="2:14">
+      <c r="K37" s="1">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L37" s="3">
         <f>1231/12996</f>
         <v>9.472145275469375E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M37" s="3">
         <f>730/13184</f>
         <v>5.5370145631067964E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="K15" s="1">
+    <row r="38" spans="2:14">
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="1">
         <v>32</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L38" s="3">
         <f>30/12996</f>
         <v>2.3084025854108957E-3</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M38" s="3">
         <f>0/13184</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1">
+    <row r="39" spans="2:14">
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1">
+        <v>738854</v>
+      </c>
+      <c r="E39" s="1">
+        <v>406828</v>
+      </c>
+      <c r="K39" s="1">
         <v>64</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L39" s="3">
         <f>30/12996</f>
         <v>2.3084025854108957E-3</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M39" s="3">
         <f>0/13184</f>
         <v>0</v>
       </c>
+      <c r="N39" s="1">
+        <v>914091</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="40" spans="2:14">
+      <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="1">
-        <v>2065</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2074</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="D40" s="1">
+        <v>188</v>
+      </c>
+      <c r="E40" s="1">
+        <v>512</v>
+      </c>
+      <c r="K40" s="1">
         <v>128</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L40" s="3">
         <f>30/12996</f>
         <v>2.3084025854108957E-3</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M40" s="3">
         <f>0/13184</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="42" spans="2:14" ht="17" thickBot="1">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="43" spans="2:14" ht="17" thickBot="1">
+      <c r="B43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
-        <v>4182</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8811</v>
+      <c r="C44" s="1">
+        <v>3700</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3501</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3699</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="45" spans="2:14" ht="17" thickBot="1">
+      <c r="B45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="10">
+        <v>286971</v>
+      </c>
+      <c r="D45" s="10">
+        <v>300823</v>
+      </c>
+      <c r="E45" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
-        <v>738854</v>
-      </c>
-      <c r="E23" s="1">
-        <v>406828</v>
-      </c>
+    <row r="46" spans="2:14" ht="13" customHeight="1">
+      <c r="B46" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>188</v>
-      </c>
-      <c r="E24" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3700</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3501</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3699</v>
-      </c>
+    <row r="47" spans="2:14" ht="13" customHeight="1">
+      <c r="B47" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B46:E46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="O4:P4" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Final/results.xlsx
+++ b/Final/results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorhuang/Desktop/DSD/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D2211E2-9E0E-794E-A5E7-C7E080868A2E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD5C9353-8F05-6C4E-9D81-D4E43C31C5E7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{299BFB76-7EC4-FE4D-A66F-EE798D0970FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EXP" sheetId="1" r:id="rId1"/>
+    <sheet name="BrPred" sheetId="3" r:id="rId2"/>
+    <sheet name="AT" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>HW4</t>
   </si>
@@ -203,6 +205,75 @@
       <t xml:space="preserve"> with clock constraint 5ns</t>
     </r>
   </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>hasHazard</t>
+  </si>
+  <si>
+    <t>L2Cache</t>
+  </si>
+  <si>
+    <t>HT1</t>
+  </si>
+  <si>
+    <t>MR1</t>
+  </si>
+  <si>
+    <t>HT2</t>
+  </si>
+  <si>
+    <t>MR2</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>(a, b, c)</t>
+  </si>
+  <si>
+    <t>(100, 0, 0)</t>
+  </si>
+  <si>
+    <t>(0, 100, 0)</t>
+  </si>
+  <si>
+    <t>(0, 0, 100)</t>
+  </si>
+  <si>
+    <t>207348 ns</t>
+  </si>
+  <si>
+    <t>1.059 cycles</t>
+  </si>
+  <si>
+    <t>iterative</t>
+  </si>
+  <si>
+    <t>6.1 ns</t>
+  </si>
+  <si>
+    <t>clock (ns)</t>
+  </si>
+  <si>
+    <t>total time (ns)</t>
+  </si>
+  <si>
+    <t>area (um²)</t>
+  </si>
+  <si>
+    <t>arithmetic</t>
+  </si>
 </sst>
 </file>
 
@@ -210,9 +281,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="\+0.0%;\-0.0%"/>
+    <numFmt numFmtId="165" formatCode="\+0.0%;\-0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -331,11 +402,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,19 +465,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,17 +492,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +688,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:f>EXP!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -575,7 +715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:f>EXP!$L$4:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -639,7 +779,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:f>EXP!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -666,7 +806,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$9</c:f>
+              <c:f>EXP!$M$4:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1156,7 +1296,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:f>EXP!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1183,7 +1323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$9</c:f>
+              <c:f>EXP!$N$4:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1247,7 +1387,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:f>EXP!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1274,7 +1414,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$4:$P$9</c:f>
+              <c:f>EXP!$P$4:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1756,7 +1896,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:f>EXP!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1783,7 +1923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$4:$O$9</c:f>
+              <c:f>EXP!$O$4:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1847,7 +1987,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:f>EXP!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1874,7 +2014,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$4:$Q$9</c:f>
+              <c:f>EXP!$Q$4:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2346,7 +2486,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>EXP!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2373,7 +2513,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:f>EXP!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2425,7 +2565,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>EXP!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2452,7 +2592,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$9</c:f>
+              <c:f>EXP!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2507,7 +2647,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>EXP!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2534,7 +2674,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$9</c:f>
+              <c:f>EXP!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2592,7 +2732,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>EXP!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2619,7 +2759,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$9</c:f>
+              <c:f>EXP!$F$4:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2683,7 +2823,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>EXP!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2710,7 +2850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$9</c:f>
+              <c:f>EXP!$G$4:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2774,7 +2914,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>EXP!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2801,7 +2941,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$9</c:f>
+              <c:f>EXP!$H$4:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3268,7 +3408,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$36:$K$40</c:f>
+              <c:f>EXP!$K$36:$K$40</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3291,7 +3431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$36:$L$40</c:f>
+              <c:f>EXP!$L$36:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3337,7 +3477,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$36:$K$40</c:f>
+              <c:f>EXP!$K$36:$K$40</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3360,7 +3500,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$36:$M$40</c:f>
+              <c:f>EXP!$M$36:$M$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6429,16 +6569,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>812493</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23626</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160331</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>732971</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161279</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>35042</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23982</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6465,16 +6605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>804375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22747</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>117888</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>745914</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>185496</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>814562</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2433</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6573,16 +6713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>475530</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>269584</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>186215</xdr:rowOff>
+      <xdr:rowOff>106124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>820235</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>145189</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>114369</xdr:rowOff>
+      <xdr:rowOff>34278</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6907,18 +7047,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4F9896-A7F8-294F-A3AD-69DB43562484}">
-  <dimension ref="A2:AF47"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q10" zoomScale="184" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="17" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="8.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="13.1640625" style="1" customWidth="1"/>
     <col min="18" max="21" width="10.83203125" style="1"/>
     <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
     <col min="23" max="24" width="0.1640625" style="1" customWidth="1"/>
@@ -6930,74 +7074,92 @@
     <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32">
-      <c r="L2" s="7" t="s">
+    <row r="1" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="16" t="s">
         <v>26</v>
       </c>
+      <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:32" ht="17" thickBot="1">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
     </row>
-    <row r="4" spans="1:32" ht="17" thickBot="1">
+    <row r="4" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -7021,14 +7183,14 @@
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="12">
         <v>5</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="22">
         <f>59/1407</f>
         <v>4.1933191186922528E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="22">
         <f>19/1419</f>
         <v>1.3389711064129669E-2</v>
       </c>
@@ -7036,7 +7198,7 @@
         <f>5/196</f>
         <v>2.5510204081632654E-2</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="22">
         <f>0/194</f>
         <v>0</v>
       </c>
@@ -7048,20 +7210,20 @@
         <f>0/194</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="10" t="s">
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="10"/>
+      <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="12">
         <v>10</v>
       </c>
       <c r="C5" s="1">
@@ -7085,14 +7247,14 @@
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="12">
         <v>10</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="22">
         <f>119/7287</f>
         <v>1.633045148895293E-2</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="22">
         <f>19/7190</f>
         <v>2.6425591098748263E-3</v>
       </c>
@@ -7100,7 +7262,7 @@
         <f>33/1156</f>
         <v>2.8546712802768166E-2</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="22">
         <f>21/1184</f>
         <v>1.7736486486486486E-2</v>
       </c>
@@ -7115,7 +7277,7 @@
       <c r="AB5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AD5" s="1">
@@ -7124,40 +7286,40 @@
       <c r="AE5" s="1">
         <v>3262</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="8">
         <f>(AE5-AD5)/AD5</f>
         <v>0.57966101694915251</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="B6" s="1">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B6" s="12">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>111895</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>71577</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>19725</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>18686</v>
       </c>
       <c r="H6" s="1">
         <v>17797</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="K6" s="1">
+      <c r="K6" s="12">
         <v>15</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="22">
         <f>179/18462</f>
         <v>9.6955909435597447E-3</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="22">
         <f>19/17495</f>
         <v>1.086024578450986E-3</v>
       </c>
@@ -7165,7 +7327,7 @@
         <f>188/2916</f>
         <v>6.4471879286694095E-2</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="22">
         <f>176/2984</f>
         <v>5.8981233243967826E-2</v>
       </c>
@@ -7180,7 +7342,7 @@
       <c r="AB6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AC6" s="14" t="s">
         <v>36</v>
       </c>
       <c r="AD6" s="1">
@@ -7189,38 +7351,38 @@
       <c r="AE6" s="1">
         <v>2.5</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="8">
         <f>(AE6-AD6)/AD6</f>
         <v>-0.30555555555555558</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="17" thickBot="1">
-      <c r="B7" s="1">
+    <row r="7" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
         <v>20</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
         <v>133012</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>37068</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>33972</v>
       </c>
       <c r="H7" s="1">
         <v>32753</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="K7" s="1">
+      <c r="K7" s="12">
         <v>20</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="22">
         <f>239/35385</f>
         <v>6.7542744100607599E-3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="22">
         <f>19/32391</f>
         <v>5.8658269272328736E-4</v>
       </c>
@@ -7228,7 +7390,7 @@
         <f>535/5476</f>
         <v>9.7699050401753099E-2</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="22">
         <f>516/5584</f>
         <v>9.2406876790830941E-2</v>
       </c>
@@ -7240,45 +7402,45 @@
         <f>0/5584</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="16" t="s">
+      <c r="AC7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AD7" s="9">
         <v>306717</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AE7" s="9">
         <v>334398</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="10">
         <f>(AE7-AD7)/AD7</f>
         <v>9.0249317775017365E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="B8" s="1">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
         <v>25</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>59495</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>53757</v>
       </c>
       <c r="H8" s="1">
         <v>52208</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="K8" s="1">
+      <c r="K8" s="12">
         <v>25</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="22">
         <f>299/57392</f>
         <v>5.2097853359353219E-3</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="22">
         <f>19/51786</f>
         <v>3.6689452747846909E-4</v>
       </c>
@@ -7286,7 +7448,7 @@
         <f>981/8836</f>
         <v>0.11102308736985061</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="22">
         <f>956/8984</f>
         <v>0.10641139804096171</v>
       </c>
@@ -7298,62 +7460,62 @@
         <f>0/8984</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="17" t="s">
+      <c r="AC8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
     </row>
-    <row r="9" spans="1:32">
-      <c r="B9" s="1">
+    <row r="9" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
         <v>30</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>87050</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="19">
         <v>78045</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="9">
         <v>76166</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="K9" s="1">
+      <c r="K9" s="13">
         <v>30</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="23">
         <f>359/84527</f>
         <v>4.2471636281898092E-3</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="23">
         <f>19/75684</f>
         <v>2.5104381375191584E-4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="20">
         <f>1529/12996</f>
         <v>0.11765158510310865</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="23">
         <f>1497/13184</f>
         <v>0.11354672330097088</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="20">
         <f>30/12996</f>
         <v>2.3084025854108957E-3</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="20">
         <f>0/13184</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G14" s="3"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
@@ -7361,7 +7523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
@@ -7379,7 +7541,7 @@
         <v>-0.32121408862197698</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
@@ -7390,7 +7552,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
@@ -7401,7 +7563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
@@ -7415,12 +7577,12 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
@@ -7440,7 +7602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -7471,7 +7633,7 @@
         <v>282703</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K37" s="1">
         <v>16</v>
       </c>
@@ -7484,7 +7646,7 @@
         <v>5.5370145631067964E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
@@ -7503,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
@@ -7531,7 +7693,7 @@
         <v>914091</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
@@ -7553,28 +7715,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="17" thickBot="1">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+    <row r="42" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="2:14" ht="17" thickBot="1">
-      <c r="B43" s="12" t="s">
+    <row r="43" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="13" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1">
@@ -7587,35 +7749,40 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="17" thickBot="1">
-      <c r="B45" s="14" t="s">
+    <row r="45" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>286971</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>300823</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="2:14" ht="13" customHeight="1">
-      <c r="B46" s="19" t="s">
+    <row r="46" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="2:14" ht="13" customHeight="1">
-      <c r="B47" s="19" t="s">
+    <row r="47" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="1">
+        <v>282703</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7630,4 +7797,342 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F28CAE1-604F-FE49-899A-8E6FD8221618}">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="27">
+        <v>458</v>
+      </c>
+      <c r="D4" s="1">
+        <v>458</v>
+      </c>
+      <c r="E4" s="24">
+        <f>(D4-C4)/C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>458</v>
+      </c>
+      <c r="G4" s="8">
+        <f>(F4-C4)/C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="27">
+        <v>663</v>
+      </c>
+      <c r="D5" s="1">
+        <v>660</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" ref="E5:E6" si="0">(D5-C5)/C5</f>
+        <v>-4.5248868778280547E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>759</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" ref="G5:G6" si="1">(F5-C5)/C5</f>
+        <v>0.14479638009049775</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="28">
+        <v>877</v>
+      </c>
+      <c r="D6" s="9">
+        <v>775</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.11630558722919042</v>
+      </c>
+      <c r="F6" s="9">
+        <v>775</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.11630558722919042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ABD6B1-477F-C246-A41C-69546F162D37}">
+  <dimension ref="C8:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1">
+        <v>290388</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2143</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="H9" s="1">
+        <f>G9*F9*E9</f>
+        <v>2538990054.7200003</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>307333</v>
+      </c>
+      <c r="F11" s="1">
+        <v>461</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1">
+        <v>294923</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2144</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1">
+        <v>307333</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="1">
+        <f>J12-J11</f>
+        <v>12410</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1">
+        <v>326755</v>
+      </c>
+      <c r="F15" s="1">
+        <v>541</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H15" s="1">
+        <f>G15*F15</f>
+        <v>3300.1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="9">
+        <v>738854</v>
+      </c>
+      <c r="F16" s="9">
+        <v>188</v>
+      </c>
+      <c r="G16" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H16" s="9">
+        <f>G16*F16</f>
+        <v>3647.2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="1">
+        <f>E19+F19*(G19+H19*I19)</f>
+        <v>1.0604800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>